--- a/sks-kobe-t/pdf/report5.xlsx
+++ b/sks-kobe-t/pdf/report5.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F871B8-1CCF-475E-B14E-B074C9F62304}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F2A289-AC5E-4D1E-A5F9-CA4EAF2BFA03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.1.31" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>(警備場所)</t>
     <rPh sb="1" eb="3">
@@ -791,7 +791,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -921,9 +921,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -953,54 +1004,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1343,10 +1346,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:W39"/>
+  <dimension ref="B1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1376,29 +1379,29 @@
   <sheetData>
     <row r="1" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:23" s="18" customFormat="1" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
     </row>
     <row r="3" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1486,7 +1489,7 @@
       <c r="V5" s="7"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="2:23" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:23" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>43</v>
       </c>
@@ -1512,7 +1515,7 @@
       <c r="V6" s="7"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:23" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>42</v>
       </c>
@@ -1538,7 +1541,7 @@
       <c r="V7" s="19"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1564,7 +1567,7 @@
       <c r="V8" s="7"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
         <v>21</v>
@@ -1592,7 +1595,7 @@
       <c r="V9" s="7"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4"/>
       <c r="D10" s="11" t="s">
         <v>40</v>
@@ -1621,7 +1624,7 @@
       <c r="V10" s="7"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
       <c r="D11" s="12" t="s">
         <v>40</v>
@@ -1639,18 +1642,18 @@
       <c r="M11" s="31"/>
       <c r="N11" s="41"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="57" t="s">
+      <c r="P11" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="Q11" s="58"/>
-      <c r="R11" s="58"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-      <c r="V11" s="59"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="49"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4"/>
       <c r="D12" s="12" t="s">
         <v>40</v>
@@ -1668,18 +1671,18 @@
       <c r="M12" s="31"/>
       <c r="N12" s="41"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="54" t="s">
+      <c r="P12" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="56"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="51"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="D13" s="12" t="s">
         <v>40</v>
@@ -1697,107 +1700,107 @@
       <c r="M13" s="31"/>
       <c r="N13" s="41"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
+      <c r="P13" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+      <c r="T13" s="50"/>
+      <c r="U13" s="50"/>
+      <c r="V13" s="51"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
-      <c r="C14" s="13" t="s">
+      <c r="D14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="43"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="50"/>
+      <c r="V14" s="51"/>
+      <c r="W14" s="4"/>
+    </row>
+    <row r="15" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="4"/>
+      <c r="D15" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="43"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="4"/>
+    </row>
+    <row r="16" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="4"/>
+      <c r="C16" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="4"/>
-    </row>
-    <row r="15" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="28"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="4"/>
-    </row>
-    <row r="16" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="4"/>
-      <c r="C16" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="40"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="42"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="54" t="s">
+      <c r="P16" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="68"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="52"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="4"/>
-      <c r="C17" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="C17" s="7"/>
       <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
       <c r="H17" s="28"/>
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
@@ -1808,75 +1811,81 @@
       <c r="M17" s="28"/>
       <c r="N17" s="40"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
+      <c r="P17" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="52"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="34"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="40"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
+      <c r="P18" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="46"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7"/>
+    <row r="19" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="4"/>
+      <c r="C19" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="57" t="s">
+      <c r="H19" s="28"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="Q19" s="58"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="58"/>
-      <c r="T19" s="58"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="59"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="52"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1889,23 +1898,24 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
-      <c r="P20" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="56"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="4"/>
+    <row r="21" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="4" t="s">
+        <v>3</v>
+      </c>
       <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
@@ -1916,20 +1926,22 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="49"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1942,24 +1954,23 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
+      <c r="P22" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="51"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="4" t="s">
-        <v>4</v>
-      </c>
+    <row r="23" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="4"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1970,22 +1981,21 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
-      <c r="P23" s="57" t="s">
+      <c r="O23" s="7"/>
+      <c r="P23" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="69"/>
+      <c r="Q23" s="50"/>
+      <c r="R23" s="50"/>
+      <c r="S23" s="50"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="51"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="4"/>
-      <c r="C24" s="7" t="s">
-        <v>28</v>
-      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
@@ -1997,24 +2007,22 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
-      <c r="O24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P24" s="54" t="s">
+      <c r="O24" s="7"/>
+      <c r="P24" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="54"/>
-      <c r="V24" s="68"/>
+      <c r="Q24" s="50"/>
+      <c r="R24" s="50"/>
+      <c r="S24" s="50"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="50"/>
+      <c r="V24" s="51"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -2028,7 +2036,9 @@
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
-      <c r="P25" s="32"/>
+      <c r="P25" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -2037,9 +2047,9 @@
       <c r="V25" s="7"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="14" t="s">
-        <v>5</v>
+    <row r="26" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -2053,21 +2063,22 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="O26" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="P26" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="52"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
-      <c r="C27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2082,20 +2093,22 @@
       <c r="O27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="57" t="s">
+      <c r="P27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="58"/>
-      <c r="S27" s="58"/>
-      <c r="T27" s="58"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="59"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="46"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
@@ -2107,21 +2120,19 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
-      <c r="O28" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P28" s="54" t="s">
+      <c r="O28" s="7"/>
+      <c r="P28" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="56"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="45"/>
+      <c r="V28" s="46"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2135,20 +2146,22 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
-      <c r="O29" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q29" s="45"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="45"/>
+      <c r="V29" s="46"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="4"/>
+    <row r="30" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="14" t="s">
+        <v>5</v>
+      </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
@@ -2161,21 +2174,19 @@
       <c r="L30" s="7"/>
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
-      <c r="O30" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P30" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="59"/>
+      <c r="O30" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2192,18 +2203,18 @@
       <c r="O31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P31" s="60" t="s">
+      <c r="P31" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="Q31" s="61"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="61"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="62"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="49"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2217,132 +2228,100 @@
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="39"/>
+      <c r="O32" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P32" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="50"/>
+      <c r="V32" s="51"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:23" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="15">
-        <v>1</v>
-      </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="15">
-        <v>2</v>
-      </c>
-      <c r="F33" s="36"/>
-      <c r="G33" s="15">
-        <v>3</v>
-      </c>
-      <c r="H33" s="36"/>
-      <c r="I33" s="15">
-        <v>4</v>
-      </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="65"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="15">
-        <v>5</v>
-      </c>
-      <c r="N33" s="36"/>
-      <c r="O33" s="15">
-        <v>6</v>
-      </c>
-      <c r="P33" s="36"/>
-      <c r="Q33" s="15">
-        <v>7</v>
-      </c>
-      <c r="R33" s="64"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="15">
+    <row r="33" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="4"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q33" s="50"/>
+      <c r="R33" s="50"/>
+      <c r="S33" s="50"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="50"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="4"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="50"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="4"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="V33" s="20"/>
-      <c r="W33" s="4"/>
-    </row>
-    <row r="34" spans="2:23" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="63"/>
-      <c r="C34" s="15">
-        <v>9</v>
-      </c>
-      <c r="D34" s="36"/>
-      <c r="E34" s="15">
-        <v>10</v>
-      </c>
-      <c r="F34" s="36"/>
-      <c r="G34" s="15">
-        <v>11</v>
-      </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="15">
-        <v>12</v>
-      </c>
-      <c r="J34" s="64"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="15">
-        <v>13</v>
-      </c>
-      <c r="N34" s="36"/>
-      <c r="O34" s="15">
-        <v>14</v>
-      </c>
-      <c r="P34" s="36"/>
-      <c r="Q34" s="15">
-        <v>15</v>
-      </c>
-      <c r="R34" s="64"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="15">
-        <v>16</v>
-      </c>
-      <c r="V34" s="20"/>
-      <c r="W34" s="4"/>
-    </row>
-    <row r="35" spans="2:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="46"/>
-      <c r="M35" s="47"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P35" s="46"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="48"/>
-      <c r="S35" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="T35" s="46"/>
-      <c r="U35" s="47"/>
-      <c r="V35" s="49"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="2:23" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="44"/>
+    <row r="36" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="4"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -2351,101 +2330,359 @@
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="L36" s="46"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P36" s="46"/>
-      <c r="Q36" s="47"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P36" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q36" s="48"/>
       <c r="R36" s="48"/>
-      <c r="S36" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="T36" s="46"/>
-      <c r="U36" s="47"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
       <c r="V36" s="49"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="2:23" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="45"/>
-      <c r="C37" s="17" t="s">
+    <row r="37" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="4"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="4"/>
+    </row>
+    <row r="38" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="4"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="49"/>
+      <c r="W38" s="4"/>
+    </row>
+    <row r="39" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="4"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="4"/>
+    </row>
+    <row r="40" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="4"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="38"/>
+      <c r="R40" s="38"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="38"/>
+      <c r="U40" s="38"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="15">
+        <v>1</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="15">
+        <v>2</v>
+      </c>
+      <c r="F41" s="36"/>
+      <c r="G41" s="15">
+        <v>3</v>
+      </c>
+      <c r="H41" s="36"/>
+      <c r="I41" s="15">
+        <v>4</v>
+      </c>
+      <c r="J41" s="58"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="15">
+        <v>5</v>
+      </c>
+      <c r="N41" s="36"/>
+      <c r="O41" s="15">
+        <v>6</v>
+      </c>
+      <c r="P41" s="36"/>
+      <c r="Q41" s="15">
+        <v>7</v>
+      </c>
+      <c r="R41" s="58"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="15">
+        <v>8</v>
+      </c>
+      <c r="V41" s="20"/>
+      <c r="W41" s="4"/>
+    </row>
+    <row r="42" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="57"/>
+      <c r="C42" s="15">
+        <v>9</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="15">
+        <v>10</v>
+      </c>
+      <c r="F42" s="36"/>
+      <c r="G42" s="15">
+        <v>11</v>
+      </c>
+      <c r="H42" s="36"/>
+      <c r="I42" s="15">
+        <v>12</v>
+      </c>
+      <c r="J42" s="58"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="60"/>
+      <c r="M42" s="15">
+        <v>13</v>
+      </c>
+      <c r="N42" s="36"/>
+      <c r="O42" s="15">
+        <v>14</v>
+      </c>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="15">
+        <v>15</v>
+      </c>
+      <c r="R42" s="58"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="60"/>
+      <c r="U42" s="15">
+        <v>16</v>
+      </c>
+      <c r="V42" s="20"/>
+      <c r="W42" s="4"/>
+    </row>
+    <row r="43" spans="2:23" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L43" s="63"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="T43" s="63"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="4"/>
+    </row>
+    <row r="44" spans="2:23" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="61"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="63"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="65"/>
+      <c r="O44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="65"/>
+      <c r="S44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="T44" s="63"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="4"/>
+    </row>
+    <row r="45" spans="2:23" ht="87.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="62"/>
+      <c r="C45" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17" t="s">
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I37" s="17"/>
-      <c r="J37" s="21" t="s">
+      <c r="I45" s="17"/>
+      <c r="J45" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="29" t="s">
+      <c r="K45" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L37" s="50"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="52"/>
-      <c r="O37" s="29" t="s">
+      <c r="L45" s="67"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="69"/>
+      <c r="O45" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P37" s="50"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="52"/>
-      <c r="S37" s="29" t="s">
+      <c r="P45" s="67"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="69"/>
+      <c r="S45" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="T37" s="50"/>
-      <c r="U37" s="51"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="4"/>
-    </row>
-    <row r="38" spans="2:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="2:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="V39" s="30" t="s">
+      <c r="T45" s="67"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="70"/>
+      <c r="W45" s="4"/>
+    </row>
+    <row r="46" spans="2:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="2:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="V47" s="30" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="40">
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="P29:V29"/>
+    <mergeCell ref="P33:V33"/>
+    <mergeCell ref="P34:V34"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="P32:V32"/>
+    <mergeCell ref="P36:V36"/>
+    <mergeCell ref="P39:V39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="P38:V38"/>
     <mergeCell ref="B2:V2"/>
-    <mergeCell ref="P24:V24"/>
     <mergeCell ref="P27:V27"/>
+    <mergeCell ref="P31:V31"/>
     <mergeCell ref="P11:V11"/>
     <mergeCell ref="P12:V12"/>
-    <mergeCell ref="P15:V15"/>
+    <mergeCell ref="P17:V17"/>
+    <mergeCell ref="P18:V18"/>
+    <mergeCell ref="P21:V21"/>
+    <mergeCell ref="P22:V22"/>
+    <mergeCell ref="P26:V26"/>
+    <mergeCell ref="P13:V13"/>
+    <mergeCell ref="P14:V14"/>
     <mergeCell ref="P16:V16"/>
     <mergeCell ref="P19:V19"/>
-    <mergeCell ref="P20:V20"/>
     <mergeCell ref="P23:V23"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="P30:V30"/>
-    <mergeCell ref="P31:V31"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="R33:T33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="R34:T34"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="T35:V35"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="T36:V36"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="P24:V24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sks-kobe-t/pdf/report5.xlsx
+++ b/sks-kobe-t/pdf/report5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F2A289-AC5E-4D1E-A5F9-CA4EAF2BFA03}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1562E3-6E8D-43B5-802C-064AC8BF4112}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,70 +295,58 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>至)　令和　　年　　月　　日(　　曜日)　　時　　分</t>
+    <t>～</t>
+  </si>
+  <si>
+    <t>C-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　　 　　～　　 　　</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自)　    　　年　　月　　日(　　曜日)　　時　　分</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>フン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>至)　    　　年　　月　　日(　　曜日)　　時　　分</t>
     <rPh sb="0" eb="1">
       <t>イタ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自)　令和　　年　　月　　日(　　曜日)　　時　　分</t>
-    <rPh sb="0" eb="1">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヨウビ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>フン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～</t>
-  </si>
-  <si>
-    <t>C-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C-3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C-5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C-4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>　　 　　～　　 　　</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -924,15 +912,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,29 +931,50 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -975,35 +987,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1349,7 +1337,7 @@
   <dimension ref="B1:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1379,29 +1367,29 @@
   <sheetData>
     <row r="1" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:23" s="18" customFormat="1" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
     </row>
     <row r="3" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1491,7 +1479,7 @@
     </row>
     <row r="6" spans="2:23" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1517,7 +1505,7 @@
     </row>
     <row r="7" spans="2:23" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1607,14 +1595,14 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="28"/>
       <c r="N10" s="40"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -1636,21 +1624,21 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="31"/>
       <c r="N11" s="41"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="49"/>
+      <c r="P11" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="50"/>
       <c r="W11" s="4"/>
     </row>
     <row r="12" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1665,21 +1653,21 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L12" s="35"/>
       <c r="M12" s="31"/>
       <c r="N12" s="41"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="51"/>
+      <c r="P12" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="47"/>
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1694,21 +1682,21 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="31"/>
       <c r="N13" s="41"/>
       <c r="O13" s="7"/>
-      <c r="P13" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="51"/>
+      <c r="P13" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="47"/>
       <c r="W13" s="4"/>
     </row>
     <row r="14" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1723,21 +1711,21 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L14" s="43"/>
       <c r="M14" s="31"/>
       <c r="N14" s="41"/>
       <c r="O14" s="7"/>
-      <c r="P14" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="51"/>
+      <c r="P14" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="46"/>
+      <c r="S14" s="46"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="47"/>
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1752,14 +1740,14 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L15" s="43"/>
       <c r="M15" s="31"/>
       <c r="N15" s="41"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1786,15 +1774,15 @@
       <c r="M16" s="32"/>
       <c r="N16" s="42"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="52"/>
+      <c r="P16" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="70"/>
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1805,21 +1793,21 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="28"/>
       <c r="N17" s="40"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="52"/>
+      <c r="P17" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="70"/>
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1835,21 +1823,21 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="28"/>
       <c r="N18" s="40"/>
       <c r="O18" s="7"/>
-      <c r="P18" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="45"/>
-      <c r="V18" s="46"/>
+      <c r="P18" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="45"/>
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1865,21 +1853,21 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="28"/>
       <c r="N19" s="40"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="52"/>
+      <c r="P19" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="70"/>
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1900,7 +1888,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -1927,15 +1915,15 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="49"/>
+      <c r="P21" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="49"/>
+      <c r="S21" s="49"/>
+      <c r="T21" s="49"/>
+      <c r="U21" s="49"/>
+      <c r="V21" s="50"/>
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1954,15 +1942,15 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
-      <c r="P22" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="51"/>
+      <c r="P22" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="47"/>
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1982,15 +1970,15 @@
       <c r="M23" s="7"/>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q23" s="50"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="51"/>
+      <c r="P23" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="47"/>
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2008,15 +1996,15 @@
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
-      <c r="P24" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q24" s="50"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="51"/>
+      <c r="P24" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="47"/>
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2037,7 +2025,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -2063,15 +2051,15 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="P26" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="52"/>
+      <c r="P26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="70"/>
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2093,15 +2081,15 @@
       <c r="O27" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P27" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="46"/>
+      <c r="P27" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="44"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="44"/>
+      <c r="T27" s="44"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="45"/>
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2121,15 +2109,15 @@
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
-      <c r="P28" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="45"/>
-      <c r="U28" s="45"/>
-      <c r="V28" s="46"/>
+      <c r="P28" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="45"/>
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2147,15 +2135,15 @@
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
-      <c r="T29" s="45"/>
-      <c r="U29" s="45"/>
-      <c r="V29" s="46"/>
+      <c r="P29" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="45"/>
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2203,15 +2191,15 @@
       <c r="O31" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P31" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="49"/>
+      <c r="P31" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="49"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="50"/>
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2231,15 +2219,15 @@
       <c r="O32" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P32" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="51"/>
+      <c r="P32" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q32" s="46"/>
+      <c r="R32" s="46"/>
+      <c r="S32" s="46"/>
+      <c r="T32" s="46"/>
+      <c r="U32" s="46"/>
+      <c r="V32" s="47"/>
       <c r="W32" s="4"/>
     </row>
     <row r="33" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2257,15 +2245,15 @@
       <c r="M33" s="7"/>
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
-      <c r="P33" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q33" s="50"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="51"/>
+      <c r="P33" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q33" s="46"/>
+      <c r="R33" s="46"/>
+      <c r="S33" s="46"/>
+      <c r="T33" s="46"/>
+      <c r="U33" s="46"/>
+      <c r="V33" s="47"/>
       <c r="W33" s="4"/>
     </row>
     <row r="34" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2283,15 +2271,15 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
-      <c r="P34" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="51"/>
+      <c r="P34" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="46"/>
+      <c r="S34" s="46"/>
+      <c r="T34" s="46"/>
+      <c r="U34" s="46"/>
+      <c r="V34" s="47"/>
       <c r="W34" s="4"/>
     </row>
     <row r="35" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2337,15 +2325,15 @@
       <c r="O36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P36" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q36" s="48"/>
-      <c r="R36" s="48"/>
-      <c r="S36" s="48"/>
-      <c r="T36" s="48"/>
-      <c r="U36" s="48"/>
-      <c r="V36" s="49"/>
+      <c r="P36" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="49"/>
+      <c r="V36" s="50"/>
       <c r="W36" s="4"/>
     </row>
     <row r="37" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2363,15 +2351,15 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="49"/>
+      <c r="P37" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="50"/>
       <c r="W37" s="4"/>
     </row>
     <row r="38" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2389,15 +2377,15 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q38" s="48"/>
-      <c r="R38" s="48"/>
-      <c r="S38" s="48"/>
-      <c r="T38" s="48"/>
-      <c r="U38" s="48"/>
-      <c r="V38" s="49"/>
+      <c r="P38" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="49"/>
+      <c r="V38" s="50"/>
       <c r="W38" s="4"/>
     </row>
     <row r="39" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2417,15 +2405,15 @@
       <c r="O39" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P39" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q39" s="54"/>
-      <c r="R39" s="54"/>
-      <c r="S39" s="54"/>
-      <c r="T39" s="54"/>
-      <c r="U39" s="54"/>
-      <c r="V39" s="55"/>
+      <c r="P39" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="64"/>
       <c r="W39" s="4"/>
     </row>
     <row r="40" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2453,7 +2441,7 @@
       <c r="W40" s="4"/>
     </row>
     <row r="41" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="51" t="s">
         <v>38</v>
       </c>
       <c r="C41" s="15">
@@ -2471,9 +2459,9 @@
       <c r="I41" s="15">
         <v>4</v>
       </c>
-      <c r="J41" s="58"/>
-      <c r="K41" s="59"/>
-      <c r="L41" s="60"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="67"/>
+      <c r="L41" s="68"/>
       <c r="M41" s="15">
         <v>5</v>
       </c>
@@ -2485,9 +2473,9 @@
       <c r="Q41" s="15">
         <v>7</v>
       </c>
-      <c r="R41" s="58"/>
-      <c r="S41" s="59"/>
-      <c r="T41" s="60"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="67"/>
+      <c r="T41" s="68"/>
       <c r="U41" s="15">
         <v>8</v>
       </c>
@@ -2495,7 +2483,7 @@
       <c r="W41" s="4"/>
     </row>
     <row r="42" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="57"/>
+      <c r="B42" s="65"/>
       <c r="C42" s="15">
         <v>9</v>
       </c>
@@ -2511,9 +2499,9 @@
       <c r="I42" s="15">
         <v>12</v>
       </c>
-      <c r="J42" s="58"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="60"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="67"/>
+      <c r="L42" s="68"/>
       <c r="M42" s="15">
         <v>13</v>
       </c>
@@ -2525,9 +2513,9 @@
       <c r="Q42" s="15">
         <v>15</v>
       </c>
-      <c r="R42" s="58"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="60"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="67"/>
+      <c r="T42" s="68"/>
       <c r="U42" s="15">
         <v>16</v>
       </c>
@@ -2535,7 +2523,7 @@
       <c r="W42" s="4"/>
     </row>
     <row r="43" spans="2:23" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="51" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="16"/>
@@ -2549,25 +2537,25 @@
       <c r="K43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="63"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="65"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="56"/>
       <c r="O43" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="65"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="56"/>
       <c r="S43" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="T43" s="63"/>
-      <c r="U43" s="64"/>
-      <c r="V43" s="66"/>
+      <c r="T43" s="54"/>
+      <c r="U43" s="55"/>
+      <c r="V43" s="57"/>
       <c r="W43" s="4"/>
     </row>
     <row r="44" spans="2:23" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="61"/>
+      <c r="B44" s="52"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -2579,25 +2567,25 @@
       <c r="K44" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="63"/>
-      <c r="M44" s="64"/>
-      <c r="N44" s="65"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="56"/>
       <c r="O44" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="65"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="56"/>
       <c r="S44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="63"/>
-      <c r="U44" s="64"/>
-      <c r="V44" s="66"/>
+      <c r="T44" s="54"/>
+      <c r="U44" s="55"/>
+      <c r="V44" s="57"/>
       <c r="W44" s="4"/>
     </row>
     <row r="45" spans="2:23" ht="87.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="62"/>
+      <c r="B45" s="53"/>
       <c r="C45" s="17" t="s">
         <v>31</v>
       </c>
@@ -2615,21 +2603,21 @@
       <c r="K45" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="67"/>
-      <c r="M45" s="68"/>
-      <c r="N45" s="69"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="60"/>
       <c r="O45" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="68"/>
-      <c r="R45" s="69"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="59"/>
+      <c r="R45" s="60"/>
       <c r="S45" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="T45" s="67"/>
-      <c r="U45" s="68"/>
-      <c r="V45" s="70"/>
+      <c r="T45" s="58"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="61"/>
       <c r="W45" s="4"/>
     </row>
     <row r="46" spans="2:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2640,29 +2628,7 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="P29:V29"/>
-    <mergeCell ref="P33:V33"/>
-    <mergeCell ref="P34:V34"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="P32:V32"/>
-    <mergeCell ref="P36:V36"/>
-    <mergeCell ref="P39:V39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="P24:V24"/>
     <mergeCell ref="P38:V38"/>
     <mergeCell ref="B2:V2"/>
     <mergeCell ref="P27:V27"/>
@@ -2679,7 +2645,29 @@
     <mergeCell ref="P16:V16"/>
     <mergeCell ref="P19:V19"/>
     <mergeCell ref="P23:V23"/>
-    <mergeCell ref="P24:V24"/>
+    <mergeCell ref="P39:V39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="P29:V29"/>
+    <mergeCell ref="P33:V33"/>
+    <mergeCell ref="P34:V34"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P32:V32"/>
+    <mergeCell ref="P36:V36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sks-kobe-t/pdf/report5.xlsx
+++ b/sks-kobe-t/pdf/report5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nishi\開発\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1562E3-6E8D-43B5-802C-064AC8BF4112}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17596494-7AFF-4656-9D3D-25286D61F04E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2020.1.31" sheetId="2" r:id="rId1"/>
@@ -175,14 +175,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>i.入出港</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ii.C-4ゲート立哨</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>契約先</t>
     <rPh sb="0" eb="3">
       <t>ケイヤクサキ</t>
@@ -194,23 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>iii.搬入出車両</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>iv.各ゲート及び管理棟、CFS事務所の開錠及び施錠実施</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ii.搬入出車両及び外来者の適正誘導</t>
-  </si>
-  <si>
-    <t>i.昼夜間巡回、警戒警備及び外周赤外線システムの監視</t>
-  </si>
-  <si>
-    <t>ii.管理棟及び各建屋の鍵の保管管理</t>
-  </si>
-  <si>
     <t>RIC-4・C-5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -239,10 +214,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>i.管理棟及び各建屋の火災、盗難等の警戒警備並びに</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不法侵入者の警戒監視</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -347,6 +318,38 @@
     <rPh sb="0" eb="1">
       <t>イタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.入出港</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.C-4ゲート立哨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.搬入出車両</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.各ゲート及び管理棟、CFS事務所の開錠及び施錠実施</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.管理棟及び各建屋の火災、盗難等の警戒警備並びに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.搬入出車両及び外来者の適正誘導</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.昼夜間巡回、警戒警備及び外周赤外線システムの監視</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.管理棟及び各建屋の鍵の保管管理</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -915,27 +918,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -965,33 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,62 +1339,62 @@
   </sheetPr>
   <dimension ref="B1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="55" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="6.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" style="1" customWidth="1"/>
-    <col min="9" max="11" width="6.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="5.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="6.625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="5.625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="5.625" style="1" customWidth="1"/>
-    <col min="21" max="21" width="6.625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="1.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6328125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="6.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="6.6328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="5.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.6328125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6328125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6328125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.6328125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6328125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="6.6328125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.6328125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="1.6328125" style="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="2" spans="2:23" s="18" customFormat="1" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+    <row r="1" spans="2:23" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:23" s="18" customFormat="1" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-    </row>
-    <row r="3" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+    </row>
+    <row r="3" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1407,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -1419,10 +1422,10 @@
       <c r="V3" s="3"/>
       <c r="W3" s="4"/>
     </row>
-    <row r="4" spans="2:23" s="27" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:23" s="27" customFormat="1" ht="53.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -1433,7 +1436,7 @@
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
@@ -1447,7 +1450,7 @@
       <c r="V4" s="25"/>
       <c r="W4" s="26"/>
     </row>
-    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1477,9 +1480,9 @@
       <c r="V5" s="7"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="2:23" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:23" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1503,9 +1506,9 @@
       <c r="V6" s="7"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="2:23" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:23" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1529,7 +1532,7 @@
       <c r="V7" s="19"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
@@ -1555,10 +1558,10 @@
       <c r="V8" s="7"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1583,10 +1586,10 @@
       <c r="V9" s="7"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
       <c r="D10" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1595,14 +1598,14 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="28"/>
       <c r="N10" s="40"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -1612,10 +1615,10 @@
       <c r="V10" s="7"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
       <c r="D11" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1624,27 +1627,27 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="31"/>
       <c r="N11" s="41"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="50"/>
+      <c r="P11" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="49"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
       <c r="D12" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1653,27 +1656,27 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L12" s="35"/>
       <c r="M12" s="31"/>
       <c r="N12" s="41"/>
       <c r="O12" s="7"/>
       <c r="P12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="46"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
       <c r="D13" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1682,27 +1685,27 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="31"/>
       <c r="N13" s="41"/>
       <c r="O13" s="7"/>
       <c r="P13" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="46"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="D14" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1711,27 +1714,27 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L14" s="43"/>
       <c r="M14" s="31"/>
       <c r="N14" s="41"/>
       <c r="O14" s="7"/>
       <c r="P14" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="46"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="D15" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1740,14 +1743,14 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L15" s="43"/>
       <c r="M15" s="31"/>
       <c r="N15" s="41"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1757,10 +1760,10 @@
       <c r="V15" s="7"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="C16" s="13" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1774,18 +1777,18 @@
       <c r="M16" s="32"/>
       <c r="N16" s="42"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="70"/>
+      <c r="P16" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="52"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1793,27 +1796,27 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="28"/>
       <c r="N17" s="40"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="70"/>
+      <c r="P17" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="52"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1823,27 +1826,27 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="28"/>
       <c r="N18" s="40"/>
       <c r="O18" s="7"/>
       <c r="P18" s="44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
       <c r="U18" s="44"/>
-      <c r="V18" s="45"/>
+      <c r="V18" s="51"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
       <c r="C19" s="7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1853,27 +1856,27 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="28"/>
       <c r="N19" s="40"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="70"/>
+      <c r="P19" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="52"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1888,7 +1891,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -1898,7 +1901,7 @@
       <c r="V20" s="7"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1915,21 +1918,21 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="50"/>
+      <c r="P21" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="49"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1943,21 +1946,21 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="P22" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="46"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1971,17 +1974,17 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="46"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1997,20 +2000,20 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="46"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
       <c r="C25" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -2025,7 +2028,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -2035,7 +2038,7 @@
       <c r="V25" s="7"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
@@ -2051,21 +2054,21 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="P26" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="70"/>
+      <c r="P26" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="52"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -2079,23 +2082,23 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="P27" s="44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="44"/>
       <c r="R27" s="44"/>
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
       <c r="U27" s="44"/>
-      <c r="V27" s="45"/>
+      <c r="V27" s="51"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2110,17 +2113,17 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
       <c r="U28" s="44"/>
-      <c r="V28" s="45"/>
+      <c r="V28" s="51"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -2136,17 +2139,17 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
       <c r="U29" s="44"/>
-      <c r="V29" s="45"/>
+      <c r="V29" s="51"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="14" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +2177,7 @@
       <c r="V30" s="7"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -2189,20 +2192,20 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P31" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="50"/>
+        <v>28</v>
+      </c>
+      <c r="P31" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="49"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -2217,20 +2220,20 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="P32" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="46"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -2246,17 +2249,17 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="46"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -2272,17 +2275,17 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="46"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -2308,7 +2311,7 @@
       <c r="V35" s="7"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -2323,20 +2326,20 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P36" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="50"/>
+        <v>28</v>
+      </c>
+      <c r="P36" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="49"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -2351,18 +2354,18 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="50"/>
+      <c r="P37" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -2377,18 +2380,18 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="50"/>
+      <c r="P38" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="49"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2403,20 +2406,20 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P39" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="64"/>
+        <v>28</v>
+      </c>
+      <c r="P39" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="55"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2440,9 +2443,9 @@
       <c r="V40" s="39"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="51" t="s">
-        <v>38</v>
+    <row r="41" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="56" t="s">
+        <v>30</v>
       </c>
       <c r="C41" s="15">
         <v>1</v>
@@ -2459,9 +2462,9 @@
       <c r="I41" s="15">
         <v>4</v>
       </c>
-      <c r="J41" s="66"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="68"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="60"/>
       <c r="M41" s="15">
         <v>5</v>
       </c>
@@ -2473,17 +2476,17 @@
       <c r="Q41" s="15">
         <v>7</v>
       </c>
-      <c r="R41" s="66"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="68"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="60"/>
       <c r="U41" s="15">
         <v>8</v>
       </c>
       <c r="V41" s="20"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="65"/>
+    <row r="42" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="57"/>
       <c r="C42" s="15">
         <v>9</v>
       </c>
@@ -2499,9 +2502,9 @@
       <c r="I42" s="15">
         <v>12</v>
       </c>
-      <c r="J42" s="66"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="68"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="60"/>
       <c r="M42" s="15">
         <v>13</v>
       </c>
@@ -2513,18 +2516,18 @@
       <c r="Q42" s="15">
         <v>15</v>
       </c>
-      <c r="R42" s="66"/>
-      <c r="S42" s="67"/>
-      <c r="T42" s="68"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="60"/>
       <c r="U42" s="15">
         <v>16</v>
       </c>
       <c r="V42" s="20"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="2:23" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="51" t="s">
-        <v>37</v>
+    <row r="43" spans="2:23" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -2537,25 +2540,25 @@
       <c r="K43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="54"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="56"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="65"/>
       <c r="O43" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="56"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="65"/>
       <c r="S43" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="T43" s="54"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="57"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="66"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="2:23" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="52"/>
+    <row r="44" spans="2:23" ht="88" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="61"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -2567,67 +2570,91 @@
       <c r="K44" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="54"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="56"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="65"/>
       <c r="O44" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="56"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="65"/>
       <c r="S44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="54"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="57"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="66"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="2:23" ht="87.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="53"/>
+    <row r="45" spans="2:23" ht="88" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="62"/>
       <c r="C45" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="33"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K45" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="58"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="60"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="69"/>
       <c r="O45" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="60"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="69"/>
       <c r="S45" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="T45" s="58"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="61"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="70"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="2:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:23" ht="5.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="2:23" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="V47" s="30" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="P23:V23"/>
+    <mergeCell ref="P39:V39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="P29:V29"/>
+    <mergeCell ref="P33:V33"/>
+    <mergeCell ref="P34:V34"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P32:V32"/>
+    <mergeCell ref="P36:V36"/>
     <mergeCell ref="P24:V24"/>
     <mergeCell ref="P38:V38"/>
     <mergeCell ref="B2:V2"/>
@@ -2644,30 +2671,6 @@
     <mergeCell ref="P14:V14"/>
     <mergeCell ref="P16:V16"/>
     <mergeCell ref="P19:V19"/>
-    <mergeCell ref="P23:V23"/>
-    <mergeCell ref="P39:V39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="P29:V29"/>
-    <mergeCell ref="P33:V33"/>
-    <mergeCell ref="P34:V34"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P32:V32"/>
-    <mergeCell ref="P36:V36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/sks-kobe-t/pdf/report5.xlsx
+++ b/sks-kobe-t/pdf/report5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saime\Documents\GitHub\sks-kobe\sks-kobe-t\pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1562E3-6E8D-43B5-802C-064AC8BF4112}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F32CC83-C931-4C3A-B17E-523FB9D57D69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,14 +175,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>i.入出港</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ii.C-4ゲート立哨</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>契約先</t>
     <rPh sb="0" eb="3">
       <t>ケイヤクサキ</t>
@@ -194,23 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>iii.搬入出車両</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>iv.各ゲート及び管理棟、CFS事務所の開錠及び施錠実施</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ii.搬入出車両及び外来者の適正誘導</t>
-  </si>
-  <si>
-    <t>i.昼夜間巡回、警戒警備及び外周赤外線システムの監視</t>
-  </si>
-  <si>
-    <t>ii.管理棟及び各建屋の鍵の保管管理</t>
-  </si>
-  <si>
     <t>RIC-4・C-5</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -239,10 +214,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>i.管理棟及び各建屋の火災、盗難等の警戒警備並びに</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>不法侵入者の警戒監視</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -347,6 +318,38 @@
     <rPh sb="0" eb="1">
       <t>イタ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.入出港</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.C-4ゲート立哨</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3.搬入出車両</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4.各ゲート及び管理棟、CFS事務所の開錠及び施錠実施</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.管理棟及び各建屋の火災、盗難等の警戒警備並びに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.搬入出車両及び外来者の適正誘導</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.昼夜間巡回、警戒警備及び外周赤外線システムの監視</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.管理棟及び各建屋の鍵の保管管理</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -915,27 +918,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -965,33 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1336,8 +1339,8 @@
   </sheetPr>
   <dimension ref="B1:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="54.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1367,29 +1370,29 @@
   <sheetData>
     <row r="1" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="2" spans="2:23" s="18" customFormat="1" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
     </row>
     <row r="3" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1404,7 +1407,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -1422,7 +1425,7 @@
     <row r="4" spans="2:23" s="27" customFormat="1" ht="53.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="23"/>
       <c r="C4" s="24" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="24"/>
@@ -1433,7 +1436,7 @@
       <c r="J4" s="24"/>
       <c r="K4" s="24"/>
       <c r="L4" s="24" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
@@ -1479,7 +1482,7 @@
     </row>
     <row r="6" spans="2:23" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1505,7 +1508,7 @@
     </row>
     <row r="7" spans="2:23" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -1558,7 +1561,7 @@
     <row r="9" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4"/>
       <c r="C9" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1586,7 +1589,7 @@
     <row r="10" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="4"/>
       <c r="D10" s="11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
@@ -1595,14 +1598,14 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="28"/>
       <c r="N10" s="40"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
@@ -1615,7 +1618,7 @@
     <row r="11" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="4"/>
       <c r="D11" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -1624,27 +1627,27 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L11" s="35"/>
       <c r="M11" s="31"/>
       <c r="N11" s="41"/>
       <c r="O11" s="7"/>
-      <c r="P11" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="49"/>
-      <c r="T11" s="49"/>
-      <c r="U11" s="49"/>
-      <c r="V11" s="50"/>
+      <c r="P11" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="49"/>
       <c r="W11" s="4"/>
     </row>
     <row r="12" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="4"/>
       <c r="D12" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -1653,27 +1656,27 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L12" s="35"/>
       <c r="M12" s="31"/>
       <c r="N12" s="41"/>
       <c r="O12" s="7"/>
       <c r="P12" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q12" s="46"/>
-      <c r="R12" s="46"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="46"/>
-      <c r="U12" s="46"/>
-      <c r="V12" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="46"/>
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="4"/>
       <c r="D13" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -1682,27 +1685,27 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L13" s="35"/>
       <c r="M13" s="31"/>
       <c r="N13" s="41"/>
       <c r="O13" s="7"/>
       <c r="P13" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="45"/>
+      <c r="V13" s="46"/>
       <c r="W13" s="4"/>
     </row>
     <row r="14" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="4"/>
       <c r="D14" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1711,27 +1714,27 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L14" s="43"/>
       <c r="M14" s="31"/>
       <c r="N14" s="41"/>
       <c r="O14" s="7"/>
       <c r="P14" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="46"/>
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="4"/>
       <c r="D15" s="12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -1740,14 +1743,14 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L15" s="43"/>
       <c r="M15" s="31"/>
       <c r="N15" s="41"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
@@ -1760,7 +1763,7 @@
     <row r="16" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="4"/>
       <c r="C16" s="13" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -1774,15 +1777,15 @@
       <c r="M16" s="32"/>
       <c r="N16" s="42"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="70"/>
+      <c r="P16" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="47"/>
+      <c r="S16" s="47"/>
+      <c r="T16" s="47"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="52"/>
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1793,27 +1796,27 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L17" s="34"/>
       <c r="M17" s="28"/>
       <c r="N17" s="40"/>
       <c r="O17" s="7"/>
-      <c r="P17" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="70"/>
+      <c r="P17" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="52"/>
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4"/>
       <c r="C18" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
@@ -1823,27 +1826,27 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L18" s="34"/>
       <c r="M18" s="28"/>
       <c r="N18" s="40"/>
       <c r="O18" s="7"/>
       <c r="P18" s="44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q18" s="44"/>
       <c r="R18" s="44"/>
       <c r="S18" s="44"/>
       <c r="T18" s="44"/>
       <c r="U18" s="44"/>
-      <c r="V18" s="45"/>
+      <c r="V18" s="51"/>
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="4"/>
       <c r="C19" s="7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -1853,27 +1856,27 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L19" s="34"/>
       <c r="M19" s="28"/>
       <c r="N19" s="40"/>
       <c r="O19" s="7"/>
-      <c r="P19" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="70"/>
+      <c r="P19" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="52"/>
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="4"/>
       <c r="C20" s="7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1888,7 +1891,7 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
@@ -1915,21 +1918,21 @@
       <c r="M21" s="7"/>
       <c r="N21" s="7"/>
       <c r="O21" s="22"/>
-      <c r="P21" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="49"/>
-      <c r="T21" s="49"/>
-      <c r="U21" s="49"/>
-      <c r="V21" s="50"/>
+      <c r="P21" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="48"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="49"/>
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4"/>
       <c r="C22" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1943,21 +1946,21 @@
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="P22" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="46"/>
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="4"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1971,14 +1974,14 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="46"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="46"/>
-      <c r="V23" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="46"/>
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -1997,20 +2000,20 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="46"/>
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="4"/>
       <c r="C25" s="7" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -2025,7 +2028,7 @@
       <c r="N25" s="7"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
@@ -2051,21 +2054,21 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
-      <c r="P26" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q26" s="48"/>
-      <c r="R26" s="48"/>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="70"/>
+      <c r="P26" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="52"/>
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4"/>
       <c r="C27" s="7" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
@@ -2079,23 +2082,23 @@
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
       <c r="O27" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="P27" s="44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q27" s="44"/>
       <c r="R27" s="44"/>
       <c r="S27" s="44"/>
       <c r="T27" s="44"/>
       <c r="U27" s="44"/>
-      <c r="V27" s="45"/>
+      <c r="V27" s="51"/>
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="4"/>
       <c r="C28" s="7" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2110,14 +2113,14 @@
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
       <c r="S28" s="44"/>
       <c r="T28" s="44"/>
       <c r="U28" s="44"/>
-      <c r="V28" s="45"/>
+      <c r="V28" s="51"/>
       <c r="W28" s="4"/>
     </row>
     <row r="29" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2136,14 +2139,14 @@
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
       <c r="P29" s="44" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q29" s="44"/>
       <c r="R29" s="44"/>
       <c r="S29" s="44"/>
       <c r="T29" s="44"/>
       <c r="U29" s="44"/>
-      <c r="V29" s="45"/>
+      <c r="V29" s="51"/>
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2189,17 +2192,17 @@
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P31" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="49"/>
-      <c r="T31" s="49"/>
-      <c r="U31" s="49"/>
-      <c r="V31" s="50"/>
+        <v>28</v>
+      </c>
+      <c r="P31" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="49"/>
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2217,17 +2220,17 @@
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="P32" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="45"/>
+      <c r="V32" s="46"/>
       <c r="W32" s="4"/>
     </row>
     <row r="33" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2246,14 +2249,14 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q33" s="46"/>
-      <c r="R33" s="46"/>
-      <c r="S33" s="46"/>
-      <c r="T33" s="46"/>
-      <c r="U33" s="46"/>
-      <c r="V33" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q33" s="45"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="45"/>
+      <c r="V33" s="46"/>
       <c r="W33" s="4"/>
     </row>
     <row r="34" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2272,14 +2275,14 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="46"/>
-      <c r="S34" s="46"/>
-      <c r="T34" s="46"/>
-      <c r="U34" s="46"/>
-      <c r="V34" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="Q34" s="45"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="45"/>
+      <c r="V34" s="46"/>
       <c r="W34" s="4"/>
     </row>
     <row r="35" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2323,17 +2326,17 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P36" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="50"/>
+        <v>28</v>
+      </c>
+      <c r="P36" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="49"/>
       <c r="W36" s="4"/>
     </row>
     <row r="37" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2351,15 +2354,15 @@
       <c r="M37" s="7"/>
       <c r="N37" s="7"/>
       <c r="O37" s="7"/>
-      <c r="P37" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="49"/>
-      <c r="T37" s="49"/>
-      <c r="U37" s="49"/>
-      <c r="V37" s="50"/>
+      <c r="P37" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="49"/>
       <c r="W37" s="4"/>
     </row>
     <row r="38" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2377,15 +2380,15 @@
       <c r="M38" s="7"/>
       <c r="N38" s="7"/>
       <c r="O38" s="7"/>
-      <c r="P38" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="49"/>
-      <c r="V38" s="50"/>
+      <c r="P38" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="49"/>
       <c r="W38" s="4"/>
     </row>
     <row r="39" spans="2:23" ht="39" customHeight="1" x14ac:dyDescent="0.15">
@@ -2403,17 +2406,17 @@
       <c r="M39" s="7"/>
       <c r="N39" s="7"/>
       <c r="O39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P39" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="63"/>
-      <c r="U39" s="63"/>
-      <c r="V39" s="64"/>
+        <v>28</v>
+      </c>
+      <c r="P39" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="54"/>
+      <c r="T39" s="54"/>
+      <c r="U39" s="54"/>
+      <c r="V39" s="55"/>
       <c r="W39" s="4"/>
     </row>
     <row r="40" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2441,8 +2444,8 @@
       <c r="W40" s="4"/>
     </row>
     <row r="41" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="51" t="s">
-        <v>38</v>
+      <c r="B41" s="56" t="s">
+        <v>30</v>
       </c>
       <c r="C41" s="15">
         <v>1</v>
@@ -2459,9 +2462,9 @@
       <c r="I41" s="15">
         <v>4</v>
       </c>
-      <c r="J41" s="66"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="68"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="59"/>
+      <c r="L41" s="60"/>
       <c r="M41" s="15">
         <v>5</v>
       </c>
@@ -2473,9 +2476,9 @@
       <c r="Q41" s="15">
         <v>7</v>
       </c>
-      <c r="R41" s="66"/>
-      <c r="S41" s="67"/>
-      <c r="T41" s="68"/>
+      <c r="R41" s="58"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="60"/>
       <c r="U41" s="15">
         <v>8</v>
       </c>
@@ -2483,7 +2486,7 @@
       <c r="W41" s="4"/>
     </row>
     <row r="42" spans="2:23" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="65"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="15">
         <v>9</v>
       </c>
@@ -2499,9 +2502,9 @@
       <c r="I42" s="15">
         <v>12</v>
       </c>
-      <c r="J42" s="66"/>
-      <c r="K42" s="67"/>
-      <c r="L42" s="68"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="59"/>
+      <c r="L42" s="60"/>
       <c r="M42" s="15">
         <v>13</v>
       </c>
@@ -2513,9 +2516,9 @@
       <c r="Q42" s="15">
         <v>15</v>
       </c>
-      <c r="R42" s="66"/>
-      <c r="S42" s="67"/>
-      <c r="T42" s="68"/>
+      <c r="R42" s="58"/>
+      <c r="S42" s="59"/>
+      <c r="T42" s="60"/>
       <c r="U42" s="15">
         <v>16</v>
       </c>
@@ -2523,8 +2526,8 @@
       <c r="W42" s="4"/>
     </row>
     <row r="43" spans="2:23" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="51" t="s">
-        <v>37</v>
+      <c r="B43" s="56" t="s">
+        <v>29</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16"/>
@@ -2537,25 +2540,25 @@
       <c r="K43" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="54"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="56"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="65"/>
       <c r="O43" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="56"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="65"/>
       <c r="S43" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="T43" s="54"/>
-      <c r="U43" s="55"/>
-      <c r="V43" s="57"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="64"/>
+      <c r="V43" s="66"/>
       <c r="W43" s="4"/>
     </row>
     <row r="44" spans="2:23" ht="87.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="52"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
@@ -2567,67 +2570,91 @@
       <c r="K44" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="54"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="56"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="65"/>
       <c r="O44" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="P44" s="54"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="56"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="65"/>
       <c r="S44" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="54"/>
-      <c r="U44" s="55"/>
-      <c r="V44" s="57"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="64"/>
+      <c r="V44" s="66"/>
       <c r="W44" s="4"/>
     </row>
     <row r="45" spans="2:23" ht="87.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="53"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
       <c r="F45" s="33"/>
       <c r="G45" s="17"/>
       <c r="H45" s="17" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I45" s="17"/>
       <c r="J45" s="21" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="K45" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="L45" s="58"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="60"/>
+      <c r="L45" s="67"/>
+      <c r="M45" s="68"/>
+      <c r="N45" s="69"/>
       <c r="O45" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="59"/>
-      <c r="R45" s="60"/>
+      <c r="P45" s="67"/>
+      <c r="Q45" s="68"/>
+      <c r="R45" s="69"/>
       <c r="S45" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="T45" s="58"/>
-      <c r="U45" s="59"/>
-      <c r="V45" s="61"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="68"/>
+      <c r="V45" s="70"/>
       <c r="W45" s="4"/>
     </row>
     <row r="46" spans="2:23" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="2:23" ht="54.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="V47" s="30" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="P43:R43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="P44:R44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="P45:R45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="P23:V23"/>
+    <mergeCell ref="P39:V39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="R41:T41"/>
+    <mergeCell ref="J42:L42"/>
+    <mergeCell ref="R42:T42"/>
+    <mergeCell ref="P28:V28"/>
+    <mergeCell ref="P29:V29"/>
+    <mergeCell ref="P33:V33"/>
+    <mergeCell ref="P34:V34"/>
+    <mergeCell ref="P37:V37"/>
+    <mergeCell ref="P32:V32"/>
+    <mergeCell ref="P36:V36"/>
     <mergeCell ref="P24:V24"/>
     <mergeCell ref="P38:V38"/>
     <mergeCell ref="B2:V2"/>
@@ -2644,30 +2671,6 @@
     <mergeCell ref="P14:V14"/>
     <mergeCell ref="P16:V16"/>
     <mergeCell ref="P19:V19"/>
-    <mergeCell ref="P23:V23"/>
-    <mergeCell ref="P39:V39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="R41:T41"/>
-    <mergeCell ref="J42:L42"/>
-    <mergeCell ref="R42:T42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="P43:R43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="P44:R44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="L45:N45"/>
-    <mergeCell ref="P45:R45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="P28:V28"/>
-    <mergeCell ref="P29:V29"/>
-    <mergeCell ref="P33:V33"/>
-    <mergeCell ref="P34:V34"/>
-    <mergeCell ref="P37:V37"/>
-    <mergeCell ref="P32:V32"/>
-    <mergeCell ref="P36:V36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.11811023622047245" bottom="0.11811023622047245" header="0.31496062992125984" footer="0.31496062992125984"/>
